--- a/data/Wolf pop per county all MN Counties.xlsx
+++ b/data/Wolf pop per county all MN Counties.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tagar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41756102466679fd/Documents/Carpenter-Gardin-Knoll-2022-EDA-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B795314-6A0A-4B0B-A33D-AA44F63A65B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{7B795314-6A0A-4B0B-A33D-AA44F63A65B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03F7345E-6DB3-4998-A995-605B9462E445}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10335" yWindow="0" windowWidth="10155" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <t>Douglas</t>
   </si>
   <si>
-    <t>Fairibault</t>
-  </si>
-  <si>
     <t>Fillmore</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>Kittson</t>
   </si>
   <si>
-    <t>Koochinching</t>
-  </si>
-  <si>
     <t>Lac qui Parle</t>
   </si>
   <si>
@@ -244,9 +238,6 @@
     <t>Roseau</t>
   </si>
   <si>
-    <t>St.Louis</t>
-  </si>
-  <si>
     <t>Scott</t>
   </si>
   <si>
@@ -296,6 +287,15 @@
   </si>
   <si>
     <t>Yellow Medicine</t>
+  </si>
+  <si>
+    <t>Faribault</t>
+  </si>
+  <si>
+    <t>Koochiching</t>
+  </si>
+  <si>
+    <t>St. Louis</t>
   </si>
 </sst>
 </file>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +842,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>86</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>41</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>251</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>49</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>103</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="B37">
         <v>292</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>197</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>122</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>50</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>167</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>54</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>105</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>82</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>186</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>58</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>133</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>185</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>40</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>156</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B70">
         <v>586</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B78">
         <v>88</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B81">
         <v>50</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B84">
         <v>70</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B87">
         <v>0</v>
